--- a/biology/Médecine/Sialométaplasie_nécrosante/Sialométaplasie_nécrosante.xlsx
+++ b/biology/Médecine/Sialométaplasie_nécrosante/Sialométaplasie_nécrosante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sialom%C3%A9taplasie_n%C3%A9crosante</t>
+          <t>Sialométaplasie_nécrosante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sialométaplasie necrosante est une lésion salivaire inflammatoire. Elle s'observe habituellement chez un homme d'environ 40 ans dans les glandes salivaires du palais, essentiellement du palais dur ou à la jonction palais dur-palais mou. Elle est d'évolution lente, de résolution le plus souvent spontanée, en 1 à 3 mois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sialom%C3%A9taplasie_n%C3%A9crosante</t>
+          <t>Sialométaplasie_nécrosante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Anatomie pathologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sialométaplasie nécrosante est souvent ulcérée. Elle correspond à une nécrose de coagulation associée à des zones de métaplasie malpighienne, une hyperplasie pseudo-épithéliomateuse de l'épithélium adjacent et une inflammation. 
-Diagnostic différentiel morphologique
-Le diagnostic peut être très difficile, en particulier à l'examen extemporané per-opératoire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sialométaplasie_nécrosante</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sialom%C3%A9taplasie_n%C3%A9crosante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie pathologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel morphologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic peut être très difficile, en particulier à l'examen extemporané per-opératoire. 
 Il existe deux principaux diagnostics différentiels :
 le carcinome épidermoïde
 le carcinome muco-épidermoïde
